--- a/Traduzido/PTBR/Lang/PTBR/Data/god_talk.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Data/god_talk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF586C36-225C-4AA3-9D71-0126199F0010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8764B7E0-3F46-4738-8370-E953FAC71565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,15 +147,6 @@
     <t>regards</t>
   </si>
   <si>
-    <t>Ah, alguém finalmente vem até mim. Dedique-se às minhas tarefas, você será recompensado grandemente, talvez.</t>
-  </si>
-  <si>
-    <t>Legal. Eu gosto disso._x000D_
-Eu aceito._x000D_
-Nada mal, obrigado._x000D_
-Bom trabalho.</t>
-  </si>
-  <si>
     <t>Você tem sido um fiel servo para mim. Aqui, use sabiamente.</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>Muito bem. Afinal, você pode ser mais útil do que eu pensava.</t>
   </si>
   <si>
-    <t>Heh, boa tentativa.</t>
-  </si>
-  <si>
     <t>De fato, você é um crente ideal. Estou impressionado.</t>
   </si>
   <si>
@@ -178,23 +166,6 @@
   </si>
   <si>
     <t>Carne e osso, que patético desperdiçar tanto de sua vida limitada dormindo. Mas descanse bem por enquanto, pois você precisará me servir novamente.</t>
-  </si>
-  <si>
-    <t>Boa matança._x000D_
-Você não quer decompor isso?_x000D_
-Ah, essa alma pode ser um bom componente para uma nova máquina.</t>
-  </si>
-  <si>
-    <t>Você deveria mecanizar seu corpo._x000D_
-Sempre se comporte de acordo com o meu nome._x000D_
-Não há necessidade de apressar. O dia em que as máquinas dominarão o mundo está muito mais próximo do que você pensa.</t>
-  </si>
-  <si>
-    <t>A evolução da civilização sempre trouxe decepção para a própria humanidade._x000D_
-Uma parte do meu corpo ainda está intacta e permanece no reino inferior, surpreendente._x000D_
-O que é isso? Você está se enrolando?_x000D_
-Orar é um ato completamente irracional, não acha?_x000D_
-Governança pelas máquinas é a salvação da humanidade.</t>
   </si>
   <si>
     <t>Eu lhe darei esse lixo._x000D_
@@ -213,76 +184,16 @@
     <t>Muito bem, use-o.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sabe, você fez a escolha certa. Vou te tratar com muito amor, minha gatinha.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh, que presente adorável. Você tem alguma intenção secreta ou algo assim?  _x000D_
-Oh, como você é esperta.  _x000D_
-Bom. Continue me mimando com mais presentes.  _x000D_
-Ahaha! Mais, eu quero mais!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minha querida gatinha, você merece uma recompensa, não acha?  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hã, tolo. Uma vida sem mim é apenas vazia.  </t>
   </si>
   <si>
     <t xml:space="preserve">Oh, minha pequena marionete, você me serve bem.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Cachorrinho mau, mau. Eu preciso te punir.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sirva-me até o fim deste mundo patético, pois você é meu escravo mais querido.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obedeça-me e entregue-me tudo. Eu picarei todos os porcos que tentarem machucar seu lindo rosto, minha gatinha.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Onde você esteve até agora? Parece que precisa de mais disciplina.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Tudo bem, vou te soltar por um tempinho. Aproveite seu sono. Mas lembre-se, gatinha, se me trair em seu sonho, nunca mais verá a luz do dia.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que nojo. Limpe o sangue das suas mãos.  _x000D_
-Aha! Pique! Pique!  _x000D_
-Gatinha má.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcos patéticos.  _x000D_
-Mani? Diga esse nome de novo e eu te pico, gatinha.  _x000D_
-Eu despedaçei o antigo servo para alimentar os silfos. Eu simplesmente não gostava do penteado dele. Ahaha!  _x000D_
-Meus filhos são as vozes do vento, nunca atados a nada.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh, rezando? Isso é uma atitude louvável.  _x000D_
-Você deseja saber o nome do vento?  _x000D_
-Você é tão lerdinho. Trabalhe, ao invés de rezar.  _x000D_
-Devo te despedaçar ou jogamos 'corta e costura'?  _x000D_
-Dedique-se a mim, minha gatinha.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqui, uma recompensa para você. Rasteje no chão e pegue.  _x000D_
-Agora, é hora da sua refeição, minha gatinha.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torne-se o vento!  _x000D_
-Venha!  _x000D_
-Ahaha! Despedace-os!  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lá vai você, anjo negro.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahaha, você tinha um rostinho tão adorável enquanto dormia, minha gatinha.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quer isso? Vamos, implore por isso."  </t>
-  </si>
-  <si>
-    <t>Não me falhe, servo.</t>
   </si>
   <si>
     <t>Eu agradeço, mortal._x000D_
@@ -300,9 +211,6 @@
     <t>Impressionante. Sua ação será lembrada.</t>
   </si>
   <si>
-    <t>Você pagará um preço doloroso pela sua tentativa tola.</t>
-  </si>
-  <si>
     <t>Já se foram os dignos de carregar o meu nome. Mas talvez...</t>
   </si>
   <si>
@@ -313,91 +221,30 @@
   </si>
   <si>
     <t>Alivie sua fadiga. Que a chama eterna o proteja de seres imundos que rastejam no véu da noite.</t>
-  </si>
-  <si>
-    <t>Impressionante._x000D_
-E assim a alma retorna à sua origem._x000D_
-Cante meu nome com orgulho. Chama e descanso eterno para os mortos.</t>
-  </si>
-  <si>
-    <t>A ociosidade é a oficina do diabo._x000D_
-Vocês mortais nunca entenderão a dor que carregamos._x000D_
-Meu nome é Itzpalt. Sou a origem dos elementos, o rei que carrega a primeira chama e o mestre de todos os Deuses._x000D_
-A guerra dos Deuses nunca acaba. Nos tempos que virão, você será um guerreiro da minha facção.</t>
-  </si>
-  <si>
-    <t>Cada uma de suas ações tece os fios do destino._x000D_
-Meus olhos estão sempre com você, mortal._x000D_
-O dia virá quando sua alma também retornará aos elementos._x000D_
-Suas orações chegam aos meus ouvidos._x000D_
-Não me louve com palavras, mas com suas ações.</t>
   </si>
   <si>
     <t>Eu lhe darei uma recompensa._x000D_
 Faça bom uso dela, mortal.</t>
   </si>
   <si>
-    <t>Que uma chama se acenda em sua alma._x000D_
-As bênçãos dos elementos estejam sobre você._x000D_
-Use isso bem.</t>
-  </si>
-  <si>
     <t>Exílio, redima seus pecados no serviço deste mortal.</t>
   </si>
   <si>
-    <t>Acorde rapidamente.</t>
-  </si>
-  <si>
     <t>Eu lhe concederei um vislumbre do meu poder.</t>
   </si>
   <si>
-    <t>Uhuu! Você realmente tem fé em mim? Realmente?</t>
-  </si>
-  <si>
-    <t>Miau miau miau miaau!_x000D_
-Mewewewewewew!_x000D_
-Uau♪_x000D_
-Que bom!</t>
-  </si>
-  <si>
     <t>Aqui está um presente! Para você! Mewmew!</t>
   </si>
   <si>
-    <t>Mewmewmew! Realmente vai me trair? Realmente vai me trair?</t>
-  </si>
-  <si>
     <t>Uhuuu! Estou tão feliz. Eu gosto de você! Eu gosto de você!</t>
   </si>
   <si>
     <t>Bobo bobo! Bobo!</t>
-  </si>
-  <si>
-    <t>Meu coração dói! Acho que gosto de você... eu acho!</t>
-  </si>
-  <si>
-    <t>Eu te amo! Te amo! Você vai ficar comigo para sempre... promessa!</t>
-  </si>
-  <si>
-    <t>Uhuuu♪ Você voltou? Você voltou!</t>
-  </si>
-  <si>
-    <t>Vai dormir? Realmente com sono? Boa noite!</t>
   </si>
   <si>
     <t>Mais! Mais!_x000D_
 Está morto! Morto!_x000D_
 Miau miau miau.</t>
-  </si>
-  <si>
-    <t>Caranguejo coco!_x000D_
-Caranguejo rei!</t>
-  </si>
-  <si>
-    <t>Mew? Uma oração...?_x000D_
-Você quer algo? Mew?_x000D_
-Uau! Você me surpreendeu! Não faça tantas travessuras!_x000D_
-Não vai se esquecer de mim? Vamos estar sempre juntos!_x000D_
-Mewmew. Vamos brincar de novo!</t>
   </si>
   <si>
     <t>Aqui, pegue isso!_x000D_
@@ -432,9 +279,6 @@
   </si>
   <si>
     <t>Muwahahahahaha! Bem-vindo de volta.</t>
-  </si>
-  <si>
-    <t>Muwahaha! Eu estarei te seguindo, até seu sonho.</t>
   </si>
   <si>
     <t>Mwahaha!_x000D_
@@ -456,20 +300,9 @@
     <t>Muwahahaaha! Use isso!</t>
   </si>
   <si>
-    <t xml:space="preserve">Mwahaha. Use isto!
-Vou lançá-lo! Muwahaha!
-</t>
-  </si>
-  <si>
     <t>E-eu não espero que você seja meu servo... E-eu r-realmente não espero, seu bobo!</t>
   </si>
   <si>
-    <t>E-eu não estou tão feliz assim. E-eu não estou, seu bobo!_x000D_
-V-você está me dando isso?_x000D_
-E-eu não vou dizer obrigada!_x000D_
-I-idiota!</t>
-  </si>
-  <si>
     <t>E-eu não estou te dando isso como gratidão! E-eu r-realmente não estou! Bobo!</t>
   </si>
   <si>
@@ -483,15 +316,6 @@
   </si>
   <si>
     <t>N-não! Para com isso! E-eu não te amo. Idiota!</t>
-  </si>
-  <si>
-    <t>E-eu não estou me a-apaixonando por você! N-nunca me deixe... ok? Seu idiota...!</t>
-  </si>
-  <si>
-    <t>N-não... e-eu não estava te procurando! Bobo!</t>
-  </si>
-  <si>
-    <t>E-eu nunca vou te dar um beijo de boa noite... nunca!</t>
   </si>
   <si>
     <t>N-nada mal, para você._x000D_
@@ -503,22 +327,6 @@
 Eu sou mesmo adequada para esse trabalho?</t>
   </si>
   <si>
-    <t>O-o que foi?_x000D_
-Você está... cansado? V-venha até mim e descanse!_x000D_
-E-eu sou Jure, a portadora da cura..._x000D_
-Defensor...? Espere, para onde você foi? Defensor!_x000D_
-É meu dever curar almas cansadas.</t>
-  </si>
-  <si>
-    <t>Eh...? Não é como se..._x000D_
-E-eu só tinha um pouco extra, ok? N-não entenda errado!</t>
-  </si>
-  <si>
-    <t>Ilumine essa alma ferida com a luz da cura!_x000D_
-Levante-se mais uma vez!_x000D_
-Siga em frente!</t>
-  </si>
-  <si>
     <t>Defensor, cuide desta #pc_race.</t>
   </si>
   <si>
@@ -528,72 +336,10 @@
     <t>H-hã? Você quer...? Aqui, um abração...!</t>
   </si>
   <si>
-    <t>Bem-vindo... Eu tenho... expectativas sobre você...</t>
-  </si>
-  <si>
-    <t>Isso é... muito bom... Obrigado._x000D_
-Isso é... bom..._x000D_
-Eu aceitarei isso..._x000D_
-Que bom...</t>
-  </si>
-  <si>
-    <t>Aqui... tem algo para... você...</t>
-  </si>
-  <si>
-    <t>Um traidor... Eu não posso... tolerar...</t>
-  </si>
-  <si>
-    <t>Bom trabalho... verdadeiramente...</t>
-  </si>
-  <si>
-    <t>Eu... não terei misericórdia... para inimigos... absolutamente.</t>
-  </si>
-  <si>
-    <t>Você é... meu precioso criado...</t>
-  </si>
-  <si>
-    <t>Eu não deixarei você ir... até que você morra...</t>
-  </si>
-  <si>
-    <t>Bem-vindo de volta... Eu estava... esperando por você.</t>
-  </si>
-  <si>
     <t>Boa noite... Que um broto brilhante nasça amanhã...</t>
   </si>
   <si>
-    <t>Você se sujou._x000D_
-Não mate demais._x000D_
-...Está satisfeito agora?</t>
-  </si>
-  <si>
-    <t>Trinado das árvores... canção tecida pelas florestas... se você prestar bem atenção..._x000D_
-Este conflito entre Deuses... feio._x000D_
-Minha Ehekatl... você não é mais o que costumava ser..._x000D_
-Eu darei... mais do que você estraga...</t>
-  </si>
-  <si>
-    <t>O tesouro da terra... você consegue sentir...?_x000D_
-Suas orações... chegaram até mim..._x000D_
-Estou sempre observando... seus esforços._x000D_
-Sim... fique aí..._x000D_
-A vida que brota... e a vida que murcha... eu apenas cuido..._x000D_
-Flores... e você... eventualmente...</t>
-  </si>
-  <si>
-    <t>Eu confio esta semente... a você... cuide dela._x000D_
-Isso mesmo... isso...</t>
-  </si>
-  <si>
     <t>Adeus, querida fada.</t>
-  </si>
-  <si>
-    <t>...Você dormiu bem...?</t>
-  </si>
-  <si>
-    <t>Isso é para você...</t>
-  </si>
-  <si>
-    <t>Bem-vindo, bem-vindo. Eu vou garantir que você nunca fique entediado.</t>
   </si>
   <si>
     <t>Bem, então, seria indelicado recusar._x000D_
@@ -608,84 +354,18 @@
     <t>Já vai embora? Que pena, estava ficando bom...</t>
   </si>
   <si>
-    <t>Você é meu seguidor favorito... por hoje.</t>
-  </si>
-  <si>
     <t>Ver você tentar é tão divertido, terá valido a pena mesmo que você consiga.</t>
   </si>
   <si>
-    <t>...Você é meu... não, vamos pular as histórias chatas.</t>
-  </si>
-  <si>
-    <t>Muito bem, você ganhou. Você é meu servo mais querido. Satisfeito?</t>
-  </si>
-  <si>
     <t>Sentiu minha falta?</t>
   </si>
   <si>
-    <t>Bem, você certamente parece tranquilo. Que sua vida seja tão vívida quanto seus sonhos.</t>
-  </si>
-  <si>
-    <t>Que exibição magnífica lá atrás._x000D_
-Nossa, você fez uma grande bagunça..._x000D_
-Nunca um momento chato com você, hein?_x000D_
-Você conseguiu! Estou orgulhoso de você._x000D_
-Espero que isso seja tão divertido para você quanto é para mim.</t>
-  </si>
-  <si>
-    <t>Dizem que quando você ora para mim, pode ser abençoado... ou pode ser amaldiçoado._x000D_
-Você deve ser muito corajoso, inteligente ou desesperado. De qualquer forma, eu aprecio._x000D_
-Seu chamado não passa despercebido. Mas será que será respondido?_x000D_
-Horome é uma criança. Ela ainda aceita doces como ofertas?</t>
-  </si>
-  <si>
-    <t>Deixe-me te dar uma mão._x000D_
-Não se preocupe, você pode confiar em uma raposa._x000D_
-Você está cheio de surpresas. O que fará a seguir, eu me pergunto?_x000D_
-Você chamou minha atenção. Vamos fazer isso valer a pena._x000D_
-Não importa quanto tempo passe, Horome sempre será minha fofinha irmãzinha.</t>
-  </si>
-  <si>
-    <t>Aqui, pegue isso. Considere como algo para se lembrar de mim._x000D_
-Você quer? Você quer? Eu sei que você quer... aqui, pegue!</t>
-  </si>
-  <si>
-    <t>Travessura ou doce? Vamos ver!_x000D_
-Lá vai, espere o inesperado._x000D_
-Como você desejar.</t>
-  </si>
-  <si>
     <t>Este mortal me serviu bem, filha. Por favor, faça companhia a #pc_him e atenda a todas as suas necessidades.</t>
   </si>
   <si>
-    <t>Por favor, seja gentil com minha irmãzinha. Ela realmente faz o seu melhor._x000D_
-Se você for ver a Horome, leve alguns doces e minhas saudações.</t>
-  </si>
-  <si>
-    <t>Oh, quem temos aqui? Sirva-me bem, e eu cuidarei bem de você.</t>
-  </si>
-  <si>
-    <t>Sua generosidade é muito apreciada, meu adorável servo._x000D_
-Que esforço! Você me deixou orgulhoso, meu servo._x000D_
-Sua fé me aquece. Minhas bênçãos estão sobre você._x000D_
-Obrigado, meu adorável servo.</t>
-  </si>
-  <si>
-    <t>Que isso te sirva como você me serviu, meu querido servo.</t>
-  </si>
-  <si>
     <t>Fico triste em ver você partir...</t>
   </si>
   <si>
-    <t>Você fez tão bem, meu adorável servo. Vou te afagar a cabeça como recompensa.</t>
-  </si>
-  <si>
-    <t>Que fofo, achou que seria tão fácil?</t>
-  </si>
-  <si>
-    <t>Você deseja tocar minha cauda? ...Sim, pode...</t>
-  </si>
-  <si>
     <t>Venha aqui, meu servo mais querido. Vou te envolver com minha cauda.</t>
   </si>
   <si>
@@ -695,82 +375,19 @@
     <t>Que a sombra da lua te traga descanso, envolto em meu carinho.</t>
   </si>
   <si>
-    <t>Que bom filho você é!_x000D_
-Oh meu, sem travessuras agora._x000D_
-Oh, o que é isso!_x000D_
-Você está cheio de energia, não está?_x000D_
-Que pena, nunca deveriam ter tocado no meu filho.</t>
-  </si>
-  <si>
-    <t>Não tema a escuridão, pois a luz da lua te guiará._x000D_
-Eu estou sempre cuidando de você, meu servo._x000D_
-Sim, sim, estou ouvindo atentamente._x000D_
-Oh, o que aconteceu? Há algo que eu possa fazer por você?_x000D_
-Kizuami é um irmão mais velho tão confiável, embora ele seja um pouco malvado às vezes.</t>
-  </si>
-  <si>
-    <t>Você deseja tocar minha cauda? Oh, você é uma criança tão travessa._x000D_
-Você está indo bem. Estou observando, sempre._x000D_
-Eu tinha dois irmãos... bem, eu tinha. Yufu não está mais..._x000D_
-Você não tem nada a temer, meu fiel servo. Eu não deixarei ninguém te machucar.</t>
-  </si>
-  <si>
-    <t>Um presente adequado para o meu adorável servo._x000D_
-Aqui, não perca, tudo bem?</t>
-  </si>
-  <si>
-    <t>Minha empregada raposa, gostaria que você cuidasse deste mortal como você me serviu.</t>
-  </si>
-  <si>
-    <t>Você vai para o meu irmão? Seja um bom pequeno, tudo bem?
-Oh meu, espero que meu irmão goste de você…</t>
-  </si>
-  <si>
     <t>Um novo seguidor, hein? Escolha interessante.</t>
   </si>
   <si>
-    <t>Ah, belo presente. Muito apreciado._x000D_
-Não me importo com o presente, mas certifique-se de gastar também com equipamentos, tudo bem?_x000D_
-Interessante. Agradeço.</t>
-  </si>
-  <si>
-    <t>Seus esforços não passaram despercebidos. Aqui está algo pequeno para reconhecer isso.</t>
-  </si>
-  <si>
-    <t>Sabe, eu estava começando a gostar de você. Bem, chegou a hora de mostrar minha ira divina.</t>
-  </si>
-  <si>
     <t>Mhm, bom trabalho.</t>
   </si>
   <si>
-    <t>Ah, uma tentativa medíocre. Minha menos favorita.</t>
-  </si>
-  <si>
     <t>Assistir você faz o tempo passar rápido.</t>
   </si>
   <si>
     <t>Normalmente não tenho favoritos, mas você é especial.</t>
   </si>
   <si>
-    <t>Boa hora, bem na hora em que eu estava ficando entediado.</t>
-  </si>
-  <si>
     <t>Coma bem e durma bem. Simples, mas crucial para superar desafios.</t>
-  </si>
-  <si>
-    <t>Que divertido! Exatamente como o combate deveria ser._x000D_
-Boas habilidades. Você realmente é divertido._x000D_
-Boa carne moída!_x000D_
-Haha, você consegue sentir que está crescendo cada vez mais, não consegue?_x000D_
-Parece que está ganhando uma experiência valiosa. Como deveria!</t>
-  </si>
-  <si>
-    <t>Mhm, fé pode ser decisiva em algumas batalhas. Eu vou dar uma mão quando você precisar._x000D_
-Precisa de ajuda? Pode contar comigo._x000D_
-Que as bênçãos da luta estejam com você._x000D_
-Certifique-se de enfrentar um desafio de vez em quando. Oponentes mais fracos ficam entediantes rapidamente._x000D_
-A estagnação eventualmente leva à deterioração. O que seria da vida sem um pouco de estimulação?_x000D_
-Você faz questão de seguir seu próprio caminho. Nada mais divertido para mim do que isso.</t>
   </si>
   <si>
     <t>Eu tenho muito respeito por Kumiromi e Jure. Afinal, não se pode aproveitar um combate saudável sem suprimentos e remédios._x000D_
@@ -783,6 +400,389 @@
   </si>
   <si>
     <t>Dê #pc_him sua força. Não se preocupe, você vai ficar bem.</t>
+  </si>
+  <si>
+    <t>Ah, alguém finalmente veio até mim. Dedique-se às minhas tarefas, e talvez você será recompensado adequadamente.</t>
+  </si>
+  <si>
+    <t>Legal. Eu gosto disso.
+Eu aceito.
+Nada mal, obrigado.
+Bom trabalho.</t>
+  </si>
+  <si>
+    <t>Haha, boa tentativa.</t>
+  </si>
+  <si>
+    <t>Boa matança.
+Você não quer decompor isso?
+Ah, essa alma pode ser um bom componente para mim.</t>
+  </si>
+  <si>
+    <t>Você deveria mecanizar seu corpo.
+Sempre se comporte de acordo para honrar o meu nome.
+Não há necessidade de apressar as coisas. O dia em que as máquinas dominarão o mundo está muito mais próximo do que você imagina.</t>
+  </si>
+  <si>
+    <t>A evolução da civilização sempre trouxe decepção para a própria humanidade.
+Uma parte do meu corpo ainda está intacta e permanece no reino inferior. Isso é surpreendente.
+O que é isso? Você está se enrolando?
+Orar é um ato completamente irracional, não acha?
+Governança pelas máquinas é a salvação da humanidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabe, você fez a escolha certa. Vou te tratar com muito amor.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, que presente adorável. Você tem alguma intenção secreta ou algo assim?  
+Oh, como você é uma pessoa esperta.  
+Bom. Continue me mimando com mais presentes.  
+Ahaha! Mais, eu quero mais!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meu leal servo, você merece uma recompensa, não acha?  </t>
+  </si>
+  <si>
+    <t>Eu preciso te punir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirva-me até o fim deste mundo patético, pois você é humano-escravo mais querido.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me obedeça e me entregue tudo. Eu picarei todos os porcos que tentarem machucar seu lindo rosto, meu leal humano.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tudo bem, vou te soltar por um tempinho. Aproveite seu sono. Mas lembre-se, humano(a), se me trair em seu sonho, nunca mais verá a luz do dia.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que nojo. Limpe o sangue das suas mãos.  
+Aha! Isso! Sangue!  
+Gostei de sua maldade.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcos patéticos.  
+Mani? Diga esse nome de novo e eu te mato.  
+Eu despedaçei o meu antigo servo para alimentar os silfos. Eu simplesmente não gostava do penteado dele. Ahaha!  
+Meus filhos são as vozes do vento, nunca atados a nada.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está rezando? Isso é uma atitude louvável.  
+Você deseja saber o nome do vento?  
+Você é tão lerdo(a). Trabalhe, ao invés de rezar.  
+Devo te despedaçar ou jogamos "corta e costura"?  
+Dedique-se a mim,  mortal.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqui, uma recompensa para você. Rasteje pelo chão e pegue.  
+Agora, é hora da sua refeição, mortal.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torne-se o vento!  
+Venha!  
+Ahaha! Despedace-os!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahaha, você tinha um rosto tão adorável enquanto dormia, mortal.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quer isso? Então, implore por isso."  </t>
+  </si>
+  <si>
+    <t>Jamais falhe comigo, mortal.</t>
+  </si>
+  <si>
+    <t>Você pagará um preço doloroso pela sua tola tentativa.</t>
+  </si>
+  <si>
+    <t>Impressionante.
+E assim a alma retorna à sua origem.
+Cante meu nome com orgulho. Ofereça descanso eterno para os mortos.</t>
+  </si>
+  <si>
+    <t>A ociosidade é a oficina do diabo.
+Vocês mortais nunca entenderão a dor que carregamos.
+Meu nome é Itzpalt. Sou a origem dos elementos, o rei que carrega a primeira chama e o mestre de todos os Deuses.
+A guerra dos Deuses nunca acaba. Nos tempos que virão, você será um guerreiro da minha facção.</t>
+  </si>
+  <si>
+    <t>Cada uma de suas ações tece os fios do destino.
+Meus olhos estão sempre em você, mortal.
+Em algum momento, chegará o dia em que sua alma também retornará aos elementos originais.
+Suas orações chegam aos meus ouvidos.
+Não me louve com suas palavras, mas com suas ações.</t>
+  </si>
+  <si>
+    <t>Que uma chama se acenda em sua alma.
+As bênçãos dos elementos estejam sobre você.
+Faça bom uso disso.</t>
+  </si>
+  <si>
+    <t>Acorde. Agora!</t>
+  </si>
+  <si>
+    <t>Você realmente tem fé em mim? Realmente tem?</t>
+  </si>
+  <si>
+    <t>Miau miau miau miaau!
+Mewewewewewew!
+Uau ♪
+Que bom!</t>
+  </si>
+  <si>
+    <t>Realmente vai me trair? Você realmente vai me trair?</t>
+  </si>
+  <si>
+    <t>Meu coração dói! Acho que gosto de você... Eu acho!</t>
+  </si>
+  <si>
+    <t>Eu te amo! Te amo! Você vai ficar comigo para sempre... E Isso é uma promessa!</t>
+  </si>
+  <si>
+    <t>Você voltou? Você voltou!</t>
+  </si>
+  <si>
+    <t>Vai dormir? Realmente está com sono? Então durma bem!</t>
+  </si>
+  <si>
+    <t>Caranguejo coco!
+Caranguejo rei!</t>
+  </si>
+  <si>
+    <t>Mew? Uma oração...?
+Você quer algo? Mew?
+Uau! Você me surpreendeu! Não faça tantas travessuras!
+Não vai se esquecer de mim? Vamos estar sempre juntos!
+Mewmew. Vamos brincar de novo!</t>
+  </si>
+  <si>
+    <t>Muwahaha! Eu estarei te seguindo, até em seus sonhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mwahaha. Use isto!
+Pegue isso! Muwahaha!
+</t>
+  </si>
+  <si>
+    <t>E-eu não estou tão feliz assim. E-eu não estou, seu bobo!
+V-você está me dando isso?
+E-eu não vou te agradecer!
+I-idiota!</t>
+  </si>
+  <si>
+    <t>E-eu não estou me a-apaixonando por você! Mas… N-nunca me deixe... ok? Seu idiota...</t>
+  </si>
+  <si>
+    <t>N-não... E-eu não estava te procurando! Bobo!</t>
+  </si>
+  <si>
+    <t>E-eu nunca vou te dar um beijo de boa noite... Nunca!</t>
+  </si>
+  <si>
+    <t>O-o que foi?
+Você está... Cansado? V-venha até mim e descanse!
+E-eu sou Jure, a portadora da cura...
+Meu defensor...? Espere, para onde você foi?
+É meu dever curar às almas cansadas.</t>
+  </si>
+  <si>
+    <t>E? Não é como se...
+E-eu só tinha um pouco extra, ok? N-não entenda errado!</t>
+  </si>
+  <si>
+    <t>Ilumine essa alma ferida com a luz da cura!
+Levante-se mais uma vez!
+Sua jornaga não acabará aqui!</t>
+  </si>
+  <si>
+    <t>Bem-vindo... Eu tenho... Expectativas sobre você...</t>
+  </si>
+  <si>
+    <t>Isso é... Muito bom... Obrigado.
+Isso é... Bom...
+Eu aceitarei isso...
+Que bom...</t>
+  </si>
+  <si>
+    <t>Aqui... Tnho algo para... Você...</t>
+  </si>
+  <si>
+    <t>Um traidor... Eu não posso tolerar...</t>
+  </si>
+  <si>
+    <t>Bom trabalho... De verdade...</t>
+  </si>
+  <si>
+    <t>Eu... Não terei misericórdia com meus inimigos.</t>
+  </si>
+  <si>
+    <t>Você é... Meu precioso mortal...</t>
+  </si>
+  <si>
+    <t>Eu não deixarei você ir... Até que você morra...</t>
+  </si>
+  <si>
+    <t>Bem-vindo de volta... Eu estava esperando por você.</t>
+  </si>
+  <si>
+    <t>Você se sujou.
+Não mate demais.
+… Está satisfeito agora?</t>
+  </si>
+  <si>
+    <t>Trinado das Àrvores... Canção tecida pelas florestas... E se você prestar bem atenção, conseguirá ouvir.
+Este conflito entre Deuses... Que coisa feia.
+Minha Ehekatl... Você não é mais o que costumava ser...
+Eu darei... Mais do que você precisa.</t>
+  </si>
+  <si>
+    <t>O tesouro da terra... Você consegue sentir?
+Suas orações chegaram até mim...
+Estou sempre observando seus esforços.
+Sim... Fique aí...
+A vida que brota e a vida que murcha, eu lhes ofereço uma direção...
+Flores... E você… Eventualmente ficarão ficar juntos...</t>
+  </si>
+  <si>
+    <t>Eu confio esta semente a você... Cuide dela.
+Isso mesmo…</t>
+  </si>
+  <si>
+    <t>Você dormiu bem?</t>
+  </si>
+  <si>
+    <t>Isso é para você…</t>
+  </si>
+  <si>
+    <t>Bem-vindo, mortal. Eu vou garantir que você nunca fique atoa.</t>
+  </si>
+  <si>
+    <t>Você é meu seguidor favorito... Por enquanto.</t>
+  </si>
+  <si>
+    <t>Você é meu... Não, vamos pular as histórias chatas.</t>
+  </si>
+  <si>
+    <t>Muito bem, você ganhou. Você é meu servo mais querido. Satisfeito, mortal?</t>
+  </si>
+  <si>
+    <t>Bem, você certamente parece tranquilo, mortal. Que sua vida seja tão vívida quanto seus sonhos.</t>
+  </si>
+  <si>
+    <t>Que exibição magnífica lá atrás.
+Nossa, você fez uma grande bagunça...
+Nunca tem um momento chato com você, hein?
+Você conseguiu! Estou orgulhoso de você.
+Espero que isso seja tão divertido para você quanto é para mim.</t>
+  </si>
+  <si>
+    <t>Dizem que quando você ora para mim, e isso pode te fazer ser abençoado... Ou ser amaldiçoado.
+Você deve ser muito corajoso, inteligente ou desesperado. De qualquer forma, eu aprecio.
+Seu chamado não passa despercebido. Mas será que irei responder?
+Horome é uma criança. Ela ainda aceita doces como ofertas?</t>
+  </si>
+  <si>
+    <t>Deixe-me te dar uma mão.
+Não se preocupe, você pode confiar em uma raposa.
+Você está cheio de surpresas. O que fará a seguir? Eu me pergunto.
+Você chamou minha atenção. Vamos fazer isso valer a pena.
+Não importa quanto tempo passe, Horome sempre será minha irmãzinha fofa.</t>
+  </si>
+  <si>
+    <t>Aqui, pegue isso. Considere como algo para se lembrar de mim.
+Você quer? Você quer? Eu sei que você quer... Aqui, pegue!</t>
+  </si>
+  <si>
+    <t>Doces ou travessuras? Vamos ver!
+Lá vai, espere o inesperado.
+Como você desejar.</t>
+  </si>
+  <si>
+    <t>Por favor, seja gentil com minha irmãzinha. Ela realmente faz o melhor que pode.
+Se você for ver a Horome, leve alguns doces, e minhas saudações.</t>
+  </si>
+  <si>
+    <t>Oh, quem temos aqui? Sirva-me bem, e eu cuidarei de você.</t>
+  </si>
+  <si>
+    <t>Sua generosidade é muito apreciada, meu adorável mortal.
+Que esforço! Você me deixou orgulhoso, meu mortal.
+Sua fé me aquece. Minhas bênçãos estão sobre você.
+Obrigado, meu adorável mortal.</t>
+  </si>
+  <si>
+    <t>Que isso te sirva como você me serviu, meu querido mortal.</t>
+  </si>
+  <si>
+    <t>Você fez tão bem, meu adorável mortal. Vou te afagar a cabeça como recompensa.</t>
+  </si>
+  <si>
+    <t>Que fofo. Achou que seria tão fácil?</t>
+  </si>
+  <si>
+    <t>Você deseja tocar minha cauda? … Sim, pode.</t>
+  </si>
+  <si>
+    <t>Que bom filho você é!
+Agora, acabou suas travessuras.
+O que é isso?!
+Você está cheio de energia, não está?
+Que pena, nunca deveriam ter tocado no meu/minha filho(a).</t>
+  </si>
+  <si>
+    <t>Não tema a escuridão, pois a luz da lua te guiará.
+Eu estou sempre cuidando de você, meu mortal.
+Sim, sim, estou ouvindo atentamente.
+Oh, o que aconteceu? Há algo que eu possa fazer por você?
+Kizuami é um irmão mais velho tão confiável, embora ele seja um pouco malvado às vezes.</t>
+  </si>
+  <si>
+    <t>Você deseja tocar minha cauda? Oh, você é uma criança tão travessa.
+Você está indo bem. Estou observando você, sempre.
+Eu tinha dois irmãos... Bem, eu tinha. Yufu não está mais entre nós...
+Você não tem nada a temer, meu/minha fiel servo(a). Eu não deixarei ninguém te machucar.</t>
+  </si>
+  <si>
+    <t>Um presente adequado para o meu adorável servo.
+Aqui, não perca, tudo bem?</t>
+  </si>
+  <si>
+    <t>Minha empregada raposa, gostaria que você cuidasse deste mortal, assim como como você cuidou de mim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você vai encontrar o meu irmão? Seja uma boa pessoa, tudo bem?
+Espero que meu irmão goste de você... </t>
+  </si>
+  <si>
+    <t>Ah, belo presente. Muito apreciado.
+Não me importo com o presente, mas certifique-se de gastar também com equipamentos, tudo bem?
+Interessante. Agradeço.</t>
+  </si>
+  <si>
+    <t>Seus esforços não passaram despercebidos. Aqui está algo para reconhecer isso.</t>
+  </si>
+  <si>
+    <t>Sabe, eu estava começando a gostar de você. Mas, bem, chegou a hora de mostrar minha ira divina.</t>
+  </si>
+  <si>
+    <t>Ah, uma tentativa medíocre.</t>
+  </si>
+  <si>
+    <t>Bem na hora. Eu já estava ficando entediado.</t>
+  </si>
+  <si>
+    <t>Que divertido! Exatamente como um combate deveria ser.
+Boas habilidades. Você realmente é intrigante.
+Boa carne moída!
+Haha, você consegue sentir que está crescendo cada vez mais, não consegue?
+Parece que está ganhando uma experiência valiosa. Como deveria!</t>
+  </si>
+  <si>
+    <t>Mhm, à fé pode ser decisiva em algumas batalhas. Eu vou lhe dar uma mão quando você precisar.
+Precisa de ajuda? Pode contar comigo.
+Que as bênçãos da luta estejam com você.
+Certifique-se de enfrentar um desafio de vez em quando. Oponentes mais fracos ficam entediantes rapidamente.
+A estagnação eventualmente leva à deterioração. O que seria da vida sem um pouco de estimulação?
+Você faz questão de seguir seu próprio caminho. Nada mais divertido para mim do que isso.</t>
   </si>
 </sst>
 </file>
@@ -1164,27 +1164,27 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N3:N18"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="131" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="124.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" style="1" customWidth="1"/>
-    <col min="7" max="7" width="72.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="52.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="77" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="96.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="93.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="78" style="1" customWidth="1"/>
     <col min="16" max="16381" width="14.42578125" style="1"/>
     <col min="16382" max="16384" width="11.5703125" style="1" customWidth="1"/>
@@ -1257,25 +1257,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -1287,40 +1287,40 @@
         <v>16</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="78.75">
+    <row r="4" spans="1:15" ht="66">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -1347,25 +1347,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -1377,40 +1377,40 @@
         <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="33">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -1422,13 +1422,13 @@
         <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O6" s="1"/>
     </row>
@@ -1437,25 +1437,25 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -1467,13 +1467,13 @@
         <v>16</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="O7" s="1"/>
     </row>
@@ -1482,25 +1482,25 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>16</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O8" s="1"/>
     </row>
@@ -1527,25 +1527,25 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -1557,13 +1557,13 @@
         <v>16</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -1572,25 +1572,25 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -1602,13 +1602,13 @@
         <v>16</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="O10" s="1"/>
     </row>
@@ -1617,25 +1617,25 @@
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -1647,13 +1647,13 @@
         <v>16</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O11" s="1"/>
     </row>
@@ -1662,25 +1662,25 @@
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1692,40 +1692,40 @@
         <v>16</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="78.75">
+    <row r="13" spans="1:15" ht="82.5">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1737,40 +1737,40 @@
         <v>16</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="104.25">
+    <row r="14" spans="1:15" ht="165">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>15</v>
@@ -1782,40 +1782,40 @@
         <v>16</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="117">
+    <row r="15" spans="1:15" ht="91.5">
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>15</v>
@@ -1827,13 +1827,13 @@
         <v>16</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="40.5">
@@ -1841,25 +1841,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>15</v>
@@ -1871,13 +1871,13 @@
         <v>16</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="40.5">
@@ -1885,18 +1885,18 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" s="4" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
@@ -1909,7 +1909,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -1919,25 +1919,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>15</v>
@@ -1949,13 +1949,13 @@
         <v>16</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1963,13 +1963,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -1978,10 +1978,10 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>15</v>
@@ -2001,25 +2001,25 @@
         <v>38</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>15</v>
@@ -2034,7 +2034,7 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" ht="66">
+    <row r="21" spans="1:14" ht="33">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -2049,10 +2049,10 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" s="6" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="N21"/>
     </row>
